--- a/data/residential_model/_EXCELFILES/energy_fact_file_housing_stock_distribution.xlsx
+++ b/data/residential_model/_EXCELFILES/energy_fact_file_housing_stock_distribution.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q39" sqref="O39:Q53"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/residential_model/_EXCELFILES/energy_fact_file_housing_stock_distribution.xlsx
+++ b/data/residential_model/_EXCELFILES/energy_fact_file_housing_stock_distribution.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="135" windowWidth="23955" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="orig" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>YEAR</t>
   </si>
@@ -41,6 +41,33 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>WITHOUT OTHER</t>
+  </si>
+  <si>
+    <t>TEST_SUM</t>
+  </si>
+  <si>
+    <t>DWELLING_TYPE_NR</t>
+  </si>
+  <si>
+    <t>DWELLING_TYPE</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>Semi-Detached</t>
+  </si>
+  <si>
+    <t>Terraced (mid_end)</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
 </sst>
 </file>
 
@@ -55,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,20 +125,1652 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Housing Type distribution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> over time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEMI_DETACHED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>32.780748663101605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.76955602536998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.089388395190802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.247284014485253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.725690890481062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.819828887770505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.270740188772976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.022113022113018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.550171316691141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.258064516129039</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.045779685264662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.839622641509436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.86915887850467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.595940959409592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.61260849703061</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.49570718481699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.588366890380311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.956598759964571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.698287220026351</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.612244897959179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.408858603066438</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.097087378640772</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.690117252931326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.497299542999585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.295426452410386</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.272281275551922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.301948051948049</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.267310789049919</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.176658673061546</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.087301587301585</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.4757778653013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.504306969459666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.299689440993788</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.709055876685934</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.411944869831547</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.925531914893615</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.850959729017692</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.351099515467759</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.710070084839543</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.65933259992666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.002917578409917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TERRACED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>31.497326203208555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.501057082452427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.312075274438062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.574236937402997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.529170931422719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.397584297936589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.855936413313465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.515970515970515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.760156632403326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.669234472797307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.759656652360515</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.70754716981132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.747663551401864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.627306273062729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.60758337140247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.320831450519655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.380313199105146</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.760850310008856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.380764163372863</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.18063395570994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.147829823807477</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.407155025553664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.493035035880112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.056951423785598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.669297881179894</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.770910589204782</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.555192150449713</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.516233766233764</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.495974235104672</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.378097521982408</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.18253968253968</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.806222922410395</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.799530148786211</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.920807453416149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.362235067437382</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.981623277182237</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.027355623100302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.963869025216411</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.699217294073797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.845444485429731</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.456178951228456</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28.227571115973742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>17.00534759358289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.019027484143763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.145844223732357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.606311433005686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.400204708290687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.564167086059388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.337307501241931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.756756756756758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.935878609887418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.406836783822824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.689079637577491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.471698113207546</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.467289719626166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.498154981549815</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.532206486980357</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.680072300045188</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.570469798657719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.07617360496014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.381203337725079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.23838471558836</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.060593038246669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.546848381601365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.940059096665259</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.341708542713569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.653926049023681</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.747424804285124</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.847097301717092</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.871753246753247</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.840579710144926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.864908073541162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.849206349206348</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.062623079952736</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.068128425998431</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.080745341614907</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.377649325626205</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.075038284839202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.021276595744681</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.672939405344373</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.710398807305253</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.254887495389156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.73854052071874</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.35010940919037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DETACHED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>10.855614973262032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.835095137420717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.507056978567695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.657009829280909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.05424769703173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.568696527428285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6373571783407854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.597051597051596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.285854136074398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.143957631198845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.589413447782546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.443396226415096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.457943925233643</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.514760147601477</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.476473275468251</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.737008585630367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.691275167785236</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.1718334809566</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.492753623188406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.06730351715154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.255694026643747</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.863713798977855</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.520894892359642</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.824120603015077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.164104694640631</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.245158632056036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.453802125919868</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.665584415584414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.66022544283414</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.867306155075937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.269841269841265</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.266246553761324</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.249021143304621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.381987577639748</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.071290944123312</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.457886676875955</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.287234042553191</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.32894241625894</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.256802087215803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.00479527849502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.235056839017236</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.630196936542667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BUNGALOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>7.8609625668449201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8752642706131066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9456351280710935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9151577858251407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2906857727737986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5993960744841473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.898658718330851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.108108108108107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.516886930983846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.4737602311025526</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9160705770147821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4905660377358494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5046728971962597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.7638376383763834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7711283691183191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7663804789877986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7695749440715876</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.034543844109832</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0469916556873091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8580112896222314</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7236785560807899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8160136286201016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9067116926973391</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0452261306532673</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0153718321562106</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9410795220436743</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8307440719542107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.7256493506493502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7359098228663452</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.7130295763389274</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4285151634501769</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4181675802662479</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3167701863354022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4412331406551058</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0352220520673807</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.7386018237082048</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.1832894241625898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.982482295937384</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1848026558465516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.9475614228089473</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.7527352297592991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51519488"/>
+        <c:axId val="51513216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51519488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51513216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51513216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51519488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -113,7 +1779,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10791825" y="6762750"/>
+          <a:off x="11020425" y="4895850"/>
           <a:ext cx="4895850" cy="4933950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -287,7 +1953,158 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>semi-detached homes in 2008.</a:t>
+            <a:t>semi-de</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YEAR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SEMI_DETACHED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TERRACED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FLAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DETACHED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BUNGALOW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OTHER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tached homes in 2008.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1. Remove from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> total all OTHER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2. Convert to %</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -640,10 +2457,1310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1970</v>
+      </c>
+      <c r="B2">
+        <f>100/orig!$I2*orig!B2</f>
+        <v>32.780748663101605</v>
+      </c>
+      <c r="C2">
+        <f>100/orig!$I2*orig!C2</f>
+        <v>31.497326203208555</v>
+      </c>
+      <c r="D2">
+        <f>100/orig!$I2*orig!D2</f>
+        <v>17.00534759358289</v>
+      </c>
+      <c r="E2">
+        <f>100/orig!$I2*orig!E2</f>
+        <v>10.855614973262032</v>
+      </c>
+      <c r="F2">
+        <f>100/orig!$I2*orig!F2</f>
+        <v>7.8609625668449201</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM(B2:F2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1971</v>
+      </c>
+      <c r="B3">
+        <f>100/orig!$I3*orig!B3</f>
+        <v>32.76955602536998</v>
+      </c>
+      <c r="C3">
+        <f>100/orig!$I3*orig!C3</f>
+        <v>31.501057082452427</v>
+      </c>
+      <c r="D3">
+        <f>100/orig!$I3*orig!D3</f>
+        <v>17.019027484143763</v>
+      </c>
+      <c r="E3">
+        <f>100/orig!$I3*orig!E3</f>
+        <v>10.835095137420717</v>
+      </c>
+      <c r="F3">
+        <f>100/orig!$I3*orig!F3</f>
+        <v>7.8752642706131066</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G42" si="0">SUM(B3:F3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1972</v>
+      </c>
+      <c r="B4">
+        <f>100/orig!$I4*orig!B4</f>
+        <v>33.089388395190802</v>
+      </c>
+      <c r="C4">
+        <f>100/orig!$I4*orig!C4</f>
+        <v>31.312075274438062</v>
+      </c>
+      <c r="D4">
+        <f>100/orig!$I4*orig!D4</f>
+        <v>17.145844223732357</v>
+      </c>
+      <c r="E4">
+        <f>100/orig!$I4*orig!E4</f>
+        <v>10.507056978567695</v>
+      </c>
+      <c r="F4">
+        <f>100/orig!$I4*orig!F4</f>
+        <v>7.9456351280710935</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1973</v>
+      </c>
+      <c r="B5">
+        <f>100/orig!$I5*orig!B5</f>
+        <v>34.247284014485253</v>
+      </c>
+      <c r="C5">
+        <f>100/orig!$I5*orig!C5</f>
+        <v>30.574236937402997</v>
+      </c>
+      <c r="D5">
+        <f>100/orig!$I5*orig!D5</f>
+        <v>16.606311433005686</v>
+      </c>
+      <c r="E5">
+        <f>100/orig!$I5*orig!E5</f>
+        <v>10.657009829280909</v>
+      </c>
+      <c r="F5">
+        <f>100/orig!$I5*orig!F5</f>
+        <v>7.9151577858251407</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1974</v>
+      </c>
+      <c r="B6">
+        <f>100/orig!$I6*orig!B6</f>
+        <v>33.725690890481062</v>
+      </c>
+      <c r="C6">
+        <f>100/orig!$I6*orig!C6</f>
+        <v>29.529170931422719</v>
+      </c>
+      <c r="D6">
+        <f>100/orig!$I6*orig!D6</f>
+        <v>17.400204708290687</v>
+      </c>
+      <c r="E6">
+        <f>100/orig!$I6*orig!E6</f>
+        <v>11.05424769703173</v>
+      </c>
+      <c r="F6">
+        <f>100/orig!$I6*orig!F6</f>
+        <v>8.2906857727737986</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1975</v>
+      </c>
+      <c r="B7">
+        <f>100/orig!$I7*orig!B7</f>
+        <v>33.819828887770505</v>
+      </c>
+      <c r="C7">
+        <f>100/orig!$I7*orig!C7</f>
+        <v>30.397584297936589</v>
+      </c>
+      <c r="D7">
+        <f>100/orig!$I7*orig!D7</f>
+        <v>17.564167086059388</v>
+      </c>
+      <c r="E7">
+        <f>100/orig!$I7*orig!E7</f>
+        <v>10.568696527428285</v>
+      </c>
+      <c r="F7">
+        <f>100/orig!$I7*orig!F7</f>
+        <v>7.5993960744841473</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>99.949672873678921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1976</v>
+      </c>
+      <c r="B8">
+        <f>100/orig!$I8*orig!B8</f>
+        <v>35.270740188772976</v>
+      </c>
+      <c r="C8">
+        <f>100/orig!$I8*orig!C8</f>
+        <v>29.855936413313465</v>
+      </c>
+      <c r="D8">
+        <f>100/orig!$I8*orig!D8</f>
+        <v>17.337307501241931</v>
+      </c>
+      <c r="E8">
+        <f>100/orig!$I8*orig!E8</f>
+        <v>9.6373571783407854</v>
+      </c>
+      <c r="F8">
+        <f>100/orig!$I8*orig!F8</f>
+        <v>7.898658718330851</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1977</v>
+      </c>
+      <c r="B9">
+        <f>100/orig!$I9*orig!B9</f>
+        <v>33.022113022113018</v>
+      </c>
+      <c r="C9">
+        <f>100/orig!$I9*orig!C9</f>
+        <v>30.515970515970515</v>
+      </c>
+      <c r="D9">
+        <f>100/orig!$I9*orig!D9</f>
+        <v>16.756756756756758</v>
+      </c>
+      <c r="E9">
+        <f>100/orig!$I9*orig!E9</f>
+        <v>11.597051597051596</v>
+      </c>
+      <c r="F9">
+        <f>100/orig!$I9*orig!F9</f>
+        <v>8.108108108108107</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1978</v>
+      </c>
+      <c r="B10">
+        <f>100/orig!$I10*orig!B10</f>
+        <v>32.550171316691141</v>
+      </c>
+      <c r="C10">
+        <f>100/orig!$I10*orig!C10</f>
+        <v>29.760156632403326</v>
+      </c>
+      <c r="D10">
+        <f>100/orig!$I10*orig!D10</f>
+        <v>16.935878609887418</v>
+      </c>
+      <c r="E10">
+        <f>100/orig!$I10*orig!E10</f>
+        <v>12.285854136074398</v>
+      </c>
+      <c r="F10">
+        <f>100/orig!$I10*orig!F10</f>
+        <v>8.516886930983846</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>100.04894762604013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1979</v>
+      </c>
+      <c r="B11">
+        <f>100/orig!$I11*orig!B11</f>
+        <v>32.258064516129039</v>
+      </c>
+      <c r="C11">
+        <f>100/orig!$I11*orig!C11</f>
+        <v>30.669234472797307</v>
+      </c>
+      <c r="D11">
+        <f>100/orig!$I11*orig!D11</f>
+        <v>15.406836783822824</v>
+      </c>
+      <c r="E11">
+        <f>100/orig!$I11*orig!E11</f>
+        <v>13.143957631198845</v>
+      </c>
+      <c r="F11">
+        <f>100/orig!$I11*orig!F11</f>
+        <v>8.4737602311025526</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>99.951853635050554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1980</v>
+      </c>
+      <c r="B12">
+        <f>100/orig!$I12*orig!B12</f>
+        <v>32.045779685264662</v>
+      </c>
+      <c r="C12">
+        <f>100/orig!$I12*orig!C12</f>
+        <v>31.759656652360515</v>
+      </c>
+      <c r="D12">
+        <f>100/orig!$I12*orig!D12</f>
+        <v>15.689079637577491</v>
+      </c>
+      <c r="E12">
+        <f>100/orig!$I12*orig!E12</f>
+        <v>12.589413447782546</v>
+      </c>
+      <c r="F12">
+        <f>100/orig!$I12*orig!F12</f>
+        <v>7.9160705770147821</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1981</v>
+      </c>
+      <c r="B13">
+        <f>100/orig!$I13*orig!B13</f>
+        <v>31.839622641509436</v>
+      </c>
+      <c r="C13">
+        <f>100/orig!$I13*orig!C13</f>
+        <v>30.70754716981132</v>
+      </c>
+      <c r="D13">
+        <f>100/orig!$I13*orig!D13</f>
+        <v>15.471698113207546</v>
+      </c>
+      <c r="E13">
+        <f>100/orig!$I13*orig!E13</f>
+        <v>13.443396226415096</v>
+      </c>
+      <c r="F13">
+        <f>100/orig!$I13*orig!F13</f>
+        <v>8.4905660377358494</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>99.952830188679258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1982</v>
+      </c>
+      <c r="B14">
+        <f>100/orig!$I14*orig!B14</f>
+        <v>31.86915887850467</v>
+      </c>
+      <c r="C14">
+        <f>100/orig!$I14*orig!C14</f>
+        <v>30.747663551401864</v>
+      </c>
+      <c r="D14">
+        <f>100/orig!$I14*orig!D14</f>
+        <v>15.467289719626166</v>
+      </c>
+      <c r="E14">
+        <f>100/orig!$I14*orig!E14</f>
+        <v>13.457943925233643</v>
+      </c>
+      <c r="F14">
+        <f>100/orig!$I14*orig!F14</f>
+        <v>8.5046728971962597</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>100.04672897196261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1983</v>
+      </c>
+      <c r="B15">
+        <f>100/orig!$I15*orig!B15</f>
+        <v>31.595940959409592</v>
+      </c>
+      <c r="C15">
+        <f>100/orig!$I15*orig!C15</f>
+        <v>30.627306273062729</v>
+      </c>
+      <c r="D15">
+        <f>100/orig!$I15*orig!D15</f>
+        <v>15.498154981549815</v>
+      </c>
+      <c r="E15">
+        <f>100/orig!$I15*orig!E15</f>
+        <v>13.514760147601477</v>
+      </c>
+      <c r="F15">
+        <f>100/orig!$I15*orig!F15</f>
+        <v>8.7638376383763834</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1984</v>
+      </c>
+      <c r="B16">
+        <f>100/orig!$I16*orig!B16</f>
+        <v>31.61260849703061</v>
+      </c>
+      <c r="C16">
+        <f>100/orig!$I16*orig!C16</f>
+        <v>30.60758337140247</v>
+      </c>
+      <c r="D16">
+        <f>100/orig!$I16*orig!D16</f>
+        <v>15.532206486980357</v>
+      </c>
+      <c r="E16">
+        <f>100/orig!$I16*orig!E16</f>
+        <v>13.476473275468251</v>
+      </c>
+      <c r="F16">
+        <f>100/orig!$I16*orig!F16</f>
+        <v>8.7711283691183191</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1985</v>
+      </c>
+      <c r="B17">
+        <f>100/orig!$I17*orig!B17</f>
+        <v>31.49570718481699</v>
+      </c>
+      <c r="C17">
+        <f>100/orig!$I17*orig!C17</f>
+        <v>30.320831450519655</v>
+      </c>
+      <c r="D17">
+        <f>100/orig!$I17*orig!D17</f>
+        <v>15.680072300045188</v>
+      </c>
+      <c r="E17">
+        <f>100/orig!$I17*orig!E17</f>
+        <v>13.737008585630367</v>
+      </c>
+      <c r="F17">
+        <f>100/orig!$I17*orig!F17</f>
+        <v>8.7663804789877986</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1986</v>
+      </c>
+      <c r="B18">
+        <f>100/orig!$I18*orig!B18</f>
+        <v>31.588366890380311</v>
+      </c>
+      <c r="C18">
+        <f>100/orig!$I18*orig!C18</f>
+        <v>30.380313199105146</v>
+      </c>
+      <c r="D18">
+        <f>100/orig!$I18*orig!D18</f>
+        <v>15.570469798657719</v>
+      </c>
+      <c r="E18">
+        <f>100/orig!$I18*orig!E18</f>
+        <v>13.691275167785236</v>
+      </c>
+      <c r="F18">
+        <f>100/orig!$I18*orig!F18</f>
+        <v>8.7695749440715876</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1987</v>
+      </c>
+      <c r="B19">
+        <f>100/orig!$I19*orig!B19</f>
+        <v>30.956598759964571</v>
+      </c>
+      <c r="C19">
+        <f>100/orig!$I19*orig!C19</f>
+        <v>29.760850310008856</v>
+      </c>
+      <c r="D19">
+        <f>100/orig!$I19*orig!D19</f>
+        <v>16.07617360496014</v>
+      </c>
+      <c r="E19">
+        <f>100/orig!$I19*orig!E19</f>
+        <v>14.1718334809566</v>
+      </c>
+      <c r="F19">
+        <f>100/orig!$I19*orig!F19</f>
+        <v>9.034543844109832</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1988</v>
+      </c>
+      <c r="B20">
+        <f>100/orig!$I20*orig!B20</f>
+        <v>30.698287220026351</v>
+      </c>
+      <c r="C20">
+        <f>100/orig!$I20*orig!C20</f>
+        <v>29.380764163372863</v>
+      </c>
+      <c r="D20">
+        <f>100/orig!$I20*orig!D20</f>
+        <v>16.381203337725079</v>
+      </c>
+      <c r="E20">
+        <f>100/orig!$I20*orig!E20</f>
+        <v>14.492753623188406</v>
+      </c>
+      <c r="F20">
+        <f>100/orig!$I20*orig!F20</f>
+        <v>9.0469916556873091</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1989</v>
+      </c>
+      <c r="B21">
+        <f>100/orig!$I21*orig!B21</f>
+        <v>30.612244897959179</v>
+      </c>
+      <c r="C21">
+        <f>100/orig!$I21*orig!C21</f>
+        <v>28.18063395570994</v>
+      </c>
+      <c r="D21">
+        <f>100/orig!$I21*orig!D21</f>
+        <v>17.23838471558836</v>
+      </c>
+      <c r="E21">
+        <f>100/orig!$I21*orig!E21</f>
+        <v>15.06730351715154</v>
+      </c>
+      <c r="F21">
+        <f>100/orig!$I21*orig!F21</f>
+        <v>8.8580112896222314</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>99.956578376031246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1990</v>
+      </c>
+      <c r="B22">
+        <f>100/orig!$I22*orig!B22</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="C22">
+        <f>100/orig!$I22*orig!C22</f>
+        <v>28.147829823807477</v>
+      </c>
+      <c r="D22">
+        <f>100/orig!$I22*orig!D22</f>
+        <v>17.060593038246669</v>
+      </c>
+      <c r="E22">
+        <f>100/orig!$I22*orig!E22</f>
+        <v>15.255694026643747</v>
+      </c>
+      <c r="F22">
+        <f>100/orig!$I22*orig!F22</f>
+        <v>8.7236785560807899</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>99.957026214009446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1991</v>
+      </c>
+      <c r="B23">
+        <f>100/orig!$I23*orig!B23</f>
+        <v>30.408858603066438</v>
+      </c>
+      <c r="C23">
+        <f>100/orig!$I23*orig!C23</f>
+        <v>28.407155025553664</v>
+      </c>
+      <c r="D23">
+        <f>100/orig!$I23*orig!D23</f>
+        <v>17.546848381601365</v>
+      </c>
+      <c r="E23">
+        <f>100/orig!$I23*orig!E23</f>
+        <v>14.863713798977855</v>
+      </c>
+      <c r="F23">
+        <f>100/orig!$I23*orig!F23</f>
+        <v>8.8160136286201016</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>100.04258943781942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1992</v>
+      </c>
+      <c r="B24">
+        <f>100/orig!$I24*orig!B24</f>
+        <v>30.097087378640772</v>
+      </c>
+      <c r="C24">
+        <f>100/orig!$I24*orig!C24</f>
+        <v>28.493035035880112</v>
+      </c>
+      <c r="D24">
+        <f>100/orig!$I24*orig!D24</f>
+        <v>17.940059096665259</v>
+      </c>
+      <c r="E24">
+        <f>100/orig!$I24*orig!E24</f>
+        <v>14.520894892359642</v>
+      </c>
+      <c r="F24">
+        <f>100/orig!$I24*orig!F24</f>
+        <v>8.9067116926973391</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>99.957788096243121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1993</v>
+      </c>
+      <c r="B25">
+        <f>100/orig!$I25*orig!B25</f>
+        <v>29.690117252931326</v>
+      </c>
+      <c r="C25">
+        <f>100/orig!$I25*orig!C25</f>
+        <v>28.056951423785598</v>
+      </c>
+      <c r="D25">
+        <f>100/orig!$I25*orig!D25</f>
+        <v>18.341708542713569</v>
+      </c>
+      <c r="E25">
+        <f>100/orig!$I25*orig!E25</f>
+        <v>14.824120603015077</v>
+      </c>
+      <c r="F25">
+        <f>100/orig!$I25*orig!F25</f>
+        <v>9.0452261306532673</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>99.95812395309882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1994</v>
+      </c>
+      <c r="B26">
+        <f>100/orig!$I26*orig!B26</f>
+        <v>29.497299542999585</v>
+      </c>
+      <c r="C26">
+        <f>100/orig!$I26*orig!C26</f>
+        <v>27.669297881179894</v>
+      </c>
+      <c r="D26">
+        <f>100/orig!$I26*orig!D26</f>
+        <v>18.653926049023681</v>
+      </c>
+      <c r="E26">
+        <f>100/orig!$I26*orig!E26</f>
+        <v>15.164104694640631</v>
+      </c>
+      <c r="F26">
+        <f>100/orig!$I26*orig!F26</f>
+        <v>9.0153718321562106</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1995</v>
+      </c>
+      <c r="B27">
+        <f>100/orig!$I27*orig!B27</f>
+        <v>29.295426452410386</v>
+      </c>
+      <c r="C27">
+        <f>100/orig!$I27*orig!C27</f>
+        <v>27.770910589204782</v>
+      </c>
+      <c r="D27">
+        <f>100/orig!$I27*orig!D27</f>
+        <v>18.747424804285124</v>
+      </c>
+      <c r="E27">
+        <f>100/orig!$I27*orig!E27</f>
+        <v>15.245158632056036</v>
+      </c>
+      <c r="F27">
+        <f>100/orig!$I27*orig!F27</f>
+        <v>8.9410795220436743</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1996</v>
+      </c>
+      <c r="B28">
+        <f>100/orig!$I28*orig!B28</f>
+        <v>29.272281275551922</v>
+      </c>
+      <c r="C28">
+        <f>100/orig!$I28*orig!C28</f>
+        <v>27.555192150449713</v>
+      </c>
+      <c r="D28">
+        <f>100/orig!$I28*orig!D28</f>
+        <v>18.847097301717092</v>
+      </c>
+      <c r="E28">
+        <f>100/orig!$I28*orig!E28</f>
+        <v>15.453802125919868</v>
+      </c>
+      <c r="F28">
+        <f>100/orig!$I28*orig!F28</f>
+        <v>8.8307440719542107</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>99.959116925592809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1997</v>
+      </c>
+      <c r="B29">
+        <f>100/orig!$I29*orig!B29</f>
+        <v>29.301948051948049</v>
+      </c>
+      <c r="C29">
+        <f>100/orig!$I29*orig!C29</f>
+        <v>27.516233766233764</v>
+      </c>
+      <c r="D29">
+        <f>100/orig!$I29*orig!D29</f>
+        <v>18.871753246753247</v>
+      </c>
+      <c r="E29">
+        <f>100/orig!$I29*orig!E29</f>
+        <v>15.665584415584414</v>
+      </c>
+      <c r="F29">
+        <f>100/orig!$I29*orig!F29</f>
+        <v>8.7256493506493502</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>100.08116883116882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1998</v>
+      </c>
+      <c r="B30">
+        <f>100/orig!$I30*orig!B30</f>
+        <v>29.267310789049919</v>
+      </c>
+      <c r="C30">
+        <f>100/orig!$I30*orig!C30</f>
+        <v>27.495974235104672</v>
+      </c>
+      <c r="D30">
+        <f>100/orig!$I30*orig!D30</f>
+        <v>18.840579710144926</v>
+      </c>
+      <c r="E30">
+        <f>100/orig!$I30*orig!E30</f>
+        <v>15.66022544283414</v>
+      </c>
+      <c r="F30">
+        <f>100/orig!$I30*orig!F30</f>
+        <v>8.7359098228663452</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1999</v>
+      </c>
+      <c r="B31">
+        <f>100/orig!$I31*orig!B31</f>
+        <v>29.176658673061546</v>
+      </c>
+      <c r="C31">
+        <f>100/orig!$I31*orig!C31</f>
+        <v>27.378097521982408</v>
+      </c>
+      <c r="D31">
+        <f>100/orig!$I31*orig!D31</f>
+        <v>18.864908073541162</v>
+      </c>
+      <c r="E31">
+        <f>100/orig!$I31*orig!E31</f>
+        <v>15.867306155075937</v>
+      </c>
+      <c r="F31">
+        <f>100/orig!$I31*orig!F31</f>
+        <v>8.7130295763389274</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>99.999999999999972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2000</v>
+      </c>
+      <c r="B32">
+        <f>100/orig!$I32*orig!B32</f>
+        <v>29.087301587301585</v>
+      </c>
+      <c r="C32">
+        <f>100/orig!$I32*orig!C32</f>
+        <v>27.18253968253968</v>
+      </c>
+      <c r="D32">
+        <f>100/orig!$I32*orig!D32</f>
+        <v>18.849206349206348</v>
+      </c>
+      <c r="E32">
+        <f>100/orig!$I32*orig!E32</f>
+        <v>16.269841269841265</v>
+      </c>
+      <c r="F32">
+        <f>100/orig!$I32*orig!F32</f>
+        <v>8.6111111111111107</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2001</v>
+      </c>
+      <c r="B33">
+        <f>100/orig!$I33*orig!B33</f>
+        <v>28.4757778653013</v>
+      </c>
+      <c r="C33">
+        <f>100/orig!$I33*orig!C33</f>
+        <v>27.806222922410395</v>
+      </c>
+      <c r="D33">
+        <f>100/orig!$I33*orig!D33</f>
+        <v>19.062623079952736</v>
+      </c>
+      <c r="E33">
+        <f>100/orig!$I33*orig!E33</f>
+        <v>16.266246553761324</v>
+      </c>
+      <c r="F33">
+        <f>100/orig!$I33*orig!F33</f>
+        <v>8.4285151634501769</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>100.03938558487593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34">
+        <f>100/orig!$I34*orig!B34</f>
+        <v>28.504306969459666</v>
+      </c>
+      <c r="C34">
+        <f>100/orig!$I34*orig!C34</f>
+        <v>27.799530148786211</v>
+      </c>
+      <c r="D34">
+        <f>100/orig!$I34*orig!D34</f>
+        <v>19.068128425998431</v>
+      </c>
+      <c r="E34">
+        <f>100/orig!$I34*orig!E34</f>
+        <v>16.249021143304621</v>
+      </c>
+      <c r="F34">
+        <f>100/orig!$I34*orig!F34</f>
+        <v>8.4181675802662479</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>100.03915426781518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2003</v>
+      </c>
+      <c r="B35">
+        <f>100/orig!$I35*orig!B35</f>
+        <v>28.299689440993788</v>
+      </c>
+      <c r="C35">
+        <f>100/orig!$I35*orig!C35</f>
+        <v>28.920807453416149</v>
+      </c>
+      <c r="D35">
+        <f>100/orig!$I35*orig!D35</f>
+        <v>17.080745341614907</v>
+      </c>
+      <c r="E35">
+        <f>100/orig!$I35*orig!E35</f>
+        <v>16.381987577639748</v>
+      </c>
+      <c r="F35">
+        <f>100/orig!$I35*orig!F35</f>
+        <v>9.3167701863354022</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2004</v>
+      </c>
+      <c r="B36">
+        <f>100/orig!$I36*orig!B36</f>
+        <v>28.709055876685934</v>
+      </c>
+      <c r="C36">
+        <f>100/orig!$I36*orig!C36</f>
+        <v>28.362235067437382</v>
+      </c>
+      <c r="D36">
+        <f>100/orig!$I36*orig!D36</f>
+        <v>16.377649325626205</v>
+      </c>
+      <c r="E36">
+        <f>100/orig!$I36*orig!E36</f>
+        <v>17.071290944123312</v>
+      </c>
+      <c r="F36">
+        <f>100/orig!$I36*orig!F36</f>
+        <v>9.4412331406551058</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>99.961464354527948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2005</v>
+      </c>
+      <c r="B37">
+        <f>100/orig!$I37*orig!B37</f>
+        <v>27.411944869831547</v>
+      </c>
+      <c r="C37">
+        <f>100/orig!$I37*orig!C37</f>
+        <v>28.981623277182237</v>
+      </c>
+      <c r="D37">
+        <f>100/orig!$I37*orig!D37</f>
+        <v>17.075038284839202</v>
+      </c>
+      <c r="E37">
+        <f>100/orig!$I37*orig!E37</f>
+        <v>17.457886676875955</v>
+      </c>
+      <c r="F37">
+        <f>100/orig!$I37*orig!F37</f>
+        <v>9.0352220520673807</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.961715160796317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38">
+        <f>100/orig!$I38*orig!B38</f>
+        <v>27.925531914893615</v>
+      </c>
+      <c r="C38">
+        <f>100/orig!$I38*orig!C38</f>
+        <v>29.027355623100302</v>
+      </c>
+      <c r="D38">
+        <f>100/orig!$I38*orig!D38</f>
+        <v>17.021276595744681</v>
+      </c>
+      <c r="E38">
+        <f>100/orig!$I38*orig!E38</f>
+        <v>17.287234042553191</v>
+      </c>
+      <c r="F38">
+        <f>100/orig!$I38*orig!F38</f>
+        <v>8.7386018237082048</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2007</v>
+      </c>
+      <c r="B39">
+        <f>100/orig!$I39*orig!B39</f>
+        <v>27.850959729017692</v>
+      </c>
+      <c r="C39">
+        <f>100/orig!$I39*orig!C39</f>
+        <v>27.963869025216411</v>
+      </c>
+      <c r="D39">
+        <f>100/orig!$I39*orig!D39</f>
+        <v>16.672939405344373</v>
+      </c>
+      <c r="E39">
+        <f>100/orig!$I39*orig!E39</f>
+        <v>18.32894241625894</v>
+      </c>
+      <c r="F39">
+        <f>100/orig!$I39*orig!F39</f>
+        <v>9.1832894241625898</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2008</v>
+      </c>
+      <c r="B40">
+        <f>100/orig!$I40*orig!B40</f>
+        <v>26.351099515467759</v>
+      </c>
+      <c r="C40">
+        <f>100/orig!$I40*orig!C40</f>
+        <v>28.699217294073797</v>
+      </c>
+      <c r="D40">
+        <f>100/orig!$I40*orig!D40</f>
+        <v>18.710398807305253</v>
+      </c>
+      <c r="E40">
+        <f>100/orig!$I40*orig!E40</f>
+        <v>17.256802087215803</v>
+      </c>
+      <c r="F40">
+        <f>100/orig!$I40*orig!F40</f>
+        <v>8.982482295937384</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2009</v>
+      </c>
+      <c r="B41">
+        <f>100/orig!$I41*orig!B41</f>
+        <v>25.710070084839543</v>
+      </c>
+      <c r="C41">
+        <f>100/orig!$I41*orig!C41</f>
+        <v>28.845444485429731</v>
+      </c>
+      <c r="D41">
+        <f>100/orig!$I41*orig!D41</f>
+        <v>19.254887495389156</v>
+      </c>
+      <c r="E41">
+        <f>100/orig!$I41*orig!E41</f>
+        <v>17.00479527849502</v>
+      </c>
+      <c r="F41">
+        <f>100/orig!$I41*orig!F41</f>
+        <v>9.1848026558465516</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42">
+        <f>100/orig!$I42*orig!B42</f>
+        <v>26.65933259992666</v>
+      </c>
+      <c r="C42">
+        <f>100/orig!$I42*orig!C42</f>
+        <v>28.456178951228456</v>
+      </c>
+      <c r="D42">
+        <f>100/orig!$I42*orig!D42</f>
+        <v>18.73854052071874</v>
+      </c>
+      <c r="E42">
+        <f>100/orig!$I42*orig!E42</f>
+        <v>17.235056839017236</v>
+      </c>
+      <c r="F42">
+        <f>100/orig!$I42*orig!F42</f>
+        <v>8.9475614228089473</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>100.03667033370003</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2011</v>
+      </c>
+      <c r="B43">
+        <f>100/orig!$I43*orig!B43</f>
+        <v>26.002917578409917</v>
+      </c>
+      <c r="C43">
+        <f>100/orig!$I43*orig!C43</f>
+        <v>28.227571115973742</v>
+      </c>
+      <c r="D43">
+        <f>100/orig!$I43*orig!D43</f>
+        <v>20.35010940919037</v>
+      </c>
+      <c r="E43">
+        <f>100/orig!$I43*orig!E43</f>
+        <v>16.630196936542667</v>
+      </c>
+      <c r="F43">
+        <f>100/orig!$I43*orig!F43</f>
+        <v>8.7527352297592991</v>
+      </c>
+      <c r="G43" s="1">
+        <f>SUM(B43:F43)</f>
+        <v>99.963530269875989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,9 +3769,10 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +3797,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -705,8 +3826,12 @@
       <c r="H2">
         <v>19.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <f>H2-G2</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1971</v>
       </c>
@@ -731,8 +3856,12 @@
       <c r="H3">
         <v>19.260000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I43" si="0">H3-G3</f>
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1972</v>
       </c>
@@ -757,8 +3886,12 @@
       <c r="H4">
         <v>19.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1973</v>
       </c>
@@ -783,8 +3916,12 @@
       <c r="H5">
         <v>19.690000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>19.330000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1974</v>
       </c>
@@ -809,8 +3946,12 @@
       <c r="H6">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -835,8 +3976,12 @@
       <c r="H7">
         <v>20.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1976</v>
       </c>
@@ -861,8 +4006,12 @@
       <c r="H8">
         <v>20.329999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1977</v>
       </c>
@@ -887,8 +4036,12 @@
       <c r="H9">
         <v>20.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -913,8 +4066,12 @@
       <c r="H10">
         <v>20.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>20.430000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1979</v>
       </c>
@@ -939,8 +4096,12 @@
       <c r="H11">
         <v>20.98</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1980</v>
       </c>
@@ -965,8 +4126,12 @@
       <c r="H12">
         <v>21.19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>20.970000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1981</v>
       </c>
@@ -991,8 +4156,12 @@
       <c r="H13">
         <v>21.41</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1982</v>
       </c>
@@ -1017,8 +4186,12 @@
       <c r="H14">
         <v>21.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>21.400000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1983</v>
       </c>
@@ -1043,8 +4216,12 @@
       <c r="H15">
         <v>21.83</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1984</v>
       </c>
@@ -1069,8 +4246,12 @@
       <c r="H16">
         <v>22.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1985</v>
       </c>
@@ -1095,8 +4276,12 @@
       <c r="H17">
         <v>22.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>22.130000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1986</v>
       </c>
@@ -1121,8 +4306,12 @@
       <c r="H18">
         <v>22.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1987</v>
       </c>
@@ -1147,8 +4336,12 @@
       <c r="H19">
         <v>22.69</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>22.580000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1988</v>
       </c>
@@ -1173,8 +4366,12 @@
       <c r="H20">
         <v>22.91</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1989</v>
       </c>
@@ -1199,8 +4396,12 @@
       <c r="H21">
         <v>23.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1990</v>
       </c>
@@ -1225,8 +4426,12 @@
       <c r="H22">
         <v>23.34</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>23.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1991</v>
       </c>
@@ -1251,8 +4456,12 @@
       <c r="H23">
         <v>23.55</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>23.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1992</v>
       </c>
@@ -1277,8 +4486,12 @@
       <c r="H24">
         <v>23.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -1303,8 +4516,12 @@
       <c r="H25">
         <v>23.95</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -1329,8 +4546,12 @@
       <c r="H26">
         <v>24.14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1995</v>
       </c>
@@ -1355,8 +4576,12 @@
       <c r="H27">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>24.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1996</v>
       </c>
@@ -1381,8 +4606,12 @@
       <c r="H28">
         <v>24.53</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1997</v>
       </c>
@@ -1407,8 +4636,12 @@
       <c r="H29">
         <v>24.72</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1998</v>
       </c>
@@ -1433,8 +4666,12 @@
       <c r="H30">
         <v>24.91</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -1459,8 +4696,12 @@
       <c r="H31">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>25.020000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -1485,8 +4726,12 @@
       <c r="H32">
         <v>25.28</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <f t="shared" si="0"/>
+        <v>25.200000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -1511,8 +4756,12 @@
       <c r="H33">
         <v>25.47</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <f t="shared" si="0"/>
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -1537,8 +4786,12 @@
       <c r="H34">
         <v>25.62</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
+        <v>25.540000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -1563,8 +4816,12 @@
       <c r="H35">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <f t="shared" si="0"/>
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2004</v>
       </c>
@@ -1589,8 +4846,12 @@
       <c r="H36">
         <v>25.99</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <f t="shared" si="0"/>
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -1615,8 +4876,12 @@
       <c r="H37">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <f t="shared" si="0"/>
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -1641,8 +4906,12 @@
       <c r="H38">
         <v>26.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2007</v>
       </c>
@@ -1667,8 +4936,12 @@
       <c r="H39">
         <v>26.66</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <f t="shared" si="0"/>
+        <v>26.57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2008</v>
       </c>
@@ -1693,8 +4966,12 @@
       <c r="H40">
         <v>26.91</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <f t="shared" si="0"/>
+        <v>26.830000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -1719,8 +4996,12 @@
       <c r="H41">
         <v>27.11</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <f t="shared" si="0"/>
+        <v>27.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -1745,8 +5026,12 @@
       <c r="H42">
         <v>27.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <f t="shared" si="0"/>
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -1769,6 +5054,10 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>27.42</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="0"/>
         <v>27.42</v>
       </c>
     </row>
@@ -1776,18 +5065,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
